--- a/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
+++ b/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
@@ -9,66 +9,33 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$W$32</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Iseplutpinur</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>Iseplutpinur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-Median Dan Modus Di Kelas Ini</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t>Iseplutpinur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Times New Roman"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>: Isep Lutpi Nur</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>: 2113191079</t>
+  </si>
+  <si>
+    <t>Tugas</t>
+  </si>
+  <si>
+    <t>: Minggu 4 Ukuran Data Dikelompokan</t>
+  </si>
   <si>
     <t>Kelas</t>
   </si>
@@ -130,12 +97,36 @@
     <t>Modus:</t>
   </si>
   <si>
+    <t>Kuartil 1</t>
+  </si>
+  <si>
+    <t>Kuartil 2</t>
+  </si>
+  <si>
+    <t>Kuartil 3</t>
+  </si>
+  <si>
+    <t>Desil 1</t>
+  </si>
+  <si>
     <t>N/2</t>
   </si>
   <si>
     <t>tb</t>
   </si>
   <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>Lm</t>
   </si>
   <si>
@@ -157,10 +148,31 @@
     <t>c</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Modus</t>
+    <t>Desil 2</t>
+  </si>
+  <si>
+    <t>Desil 3</t>
+  </si>
+  <si>
+    <t>Persentil 1</t>
+  </si>
+  <si>
+    <t>Persentil 2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -169,11 +181,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -201,10 +220,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,16 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -255,28 +292,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,14 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,17 +321,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,14 +361,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,17 +375,22 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,187 +411,247 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,11 +745,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,21 +757,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,9 +778,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,15 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -746,12 +831,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,247 +863,271 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,93 +1188,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>150495</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>328295</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>77470</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3101975" y="2846070"/>
-              <a:ext cx="1701800" cy="431800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>64135</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>351155</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>15875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="64135" y="2828925"/>
-              <a:ext cx="1714500" cy="787400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1416,11 +1447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -1430,718 +1463,1510 @@
     <col min="3" max="3" width="2.26666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.71428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="15" width="5.71428571428571" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.71428571428571" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.14285714285714" style="1"/>
-    <col min="19" max="19" width="8.85714285714286" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="16" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="18" max="20" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="1" ht="18.75" spans="2:5">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="2" ht="18.75" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+    </row>
+    <row r="3" ht="18.75" spans="2:5">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="18.75" spans="1:24">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="K5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8">
+      <c r="L5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="38" t="str">
+        <f>K26</f>
+        <v>Persentil 1</v>
+      </c>
+      <c r="S5" s="39" t="str">
+        <f>N26</f>
+        <v>Persentil 2</v>
+      </c>
+      <c r="T5" s="40" t="str">
+        <f>Q26</f>
+        <v>Persentil 2</v>
+      </c>
+      <c r="U5" s="41"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:24">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:D9" si="0">B3+9</f>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" ref="D6:D12" si="0">B6+9</f>
         <v>39</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="12">
-        <f>B3</f>
+      <c r="F6" s="13">
+        <f>B6</f>
         <v>30</v>
       </c>
-      <c r="G3" s="13">
-        <f>D3</f>
+      <c r="G6" s="13">
+        <f>D6</f>
         <v>39</v>
       </c>
-      <c r="H3" s="13">
-        <f>F3-0.5</f>
+      <c r="H6" s="13">
+        <f>F6-0.5</f>
         <v>29.5</v>
       </c>
-      <c r="I3" s="13">
-        <f>G3+0.5</f>
+      <c r="I6" s="13">
+        <f>G6+0.5</f>
         <v>39.5</v>
       </c>
-      <c r="J3" s="13">
-        <f>E3</f>
+      <c r="J6" s="13">
+        <f>E6</f>
         <v>2</v>
       </c>
-      <c r="K3" s="30">
-        <f>E3/$E$10*100%</f>
+      <c r="K6" s="31">
+        <f>E6/$E$13*100%</f>
         <v>0.02</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L6" s="13">
         <v>0</v>
       </c>
-      <c r="M3" s="13">
-        <f>J9</f>
+      <c r="M6" s="13">
+        <f>J12</f>
         <v>100</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N6" s="31">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O6" s="31">
         <v>1</v>
       </c>
-      <c r="P3" s="31">
-        <f>(B3+D3)/2</f>
+      <c r="P6" s="13">
+        <f>(B6+D6)/2</f>
         <v>34.5</v>
       </c>
-      <c r="Q3" s="31">
-        <f>E3*P3</f>
+      <c r="Q6" s="13">
+        <f>E6*P6</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8">
-        <f t="shared" ref="B4:B9" si="1">D3+1</f>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:24">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9">
+        <f t="shared" ref="B7:B12" si="1">D6+1</f>
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F10" si="2">B4</f>
+      <c r="F7" s="13">
+        <f t="shared" ref="F7:F13" si="2">B7</f>
         <v>40</v>
       </c>
-      <c r="G4" s="13">
-        <f t="shared" ref="G4:G9" si="3">D4</f>
+      <c r="G7" s="13">
+        <f t="shared" ref="G7:G12" si="3">D7</f>
         <v>49</v>
       </c>
-      <c r="H4" s="13">
-        <f t="shared" ref="H4:H9" si="4">F4-0.5</f>
+      <c r="H7" s="13">
+        <f t="shared" ref="H7:H12" si="4">F7-0.5</f>
         <v>39.5</v>
       </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I9" si="5">G4+0.5</f>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:I12" si="5">G7+0.5</f>
         <v>49.5</v>
       </c>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J9" si="6">E4+J3</f>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:J12" si="6">E7+J6</f>
         <v>5</v>
       </c>
-      <c r="K4" s="30">
-        <f t="shared" ref="K4:K9" si="7">E4/$E$10*100%</f>
+      <c r="K7" s="31">
+        <f t="shared" ref="K7:K12" si="7">E7/$E$13*100%</f>
         <v>0.03</v>
       </c>
-      <c r="L4" s="13">
-        <f>E3</f>
+      <c r="L7" s="13">
+        <f>E6</f>
         <v>2</v>
       </c>
-      <c r="M4" s="13">
-        <f t="shared" ref="M4:M9" si="8">M3-E3</f>
+      <c r="M7" s="13">
+        <f t="shared" ref="M7:M12" si="8">M6-E6</f>
         <v>98</v>
       </c>
-      <c r="N4" s="30">
-        <f t="shared" ref="N4:N9" si="9">N3+K3</f>
+      <c r="N7" s="31">
+        <f t="shared" ref="N7:N12" si="9">N6+K6</f>
         <v>0.02</v>
       </c>
-      <c r="O4" s="30">
-        <f t="shared" ref="O4:O9" si="10">O3-K3</f>
+      <c r="O7" s="31">
+        <f t="shared" ref="O7:O12" si="10">O6-K6</f>
         <v>0.98</v>
       </c>
-      <c r="P4" s="31">
-        <f t="shared" ref="P4:P9" si="11">(B4+D4)/2</f>
+      <c r="P7" s="13">
+        <f t="shared" ref="P7:P12" si="11">(B7+D7)/2</f>
         <v>44.5</v>
       </c>
-      <c r="Q4" s="31">
-        <f t="shared" ref="Q4:Q9" si="12">E4*P4</f>
+      <c r="Q7" s="13">
+        <f t="shared" ref="Q7:Q12" si="12">E7*P7</f>
         <v>133.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="8">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" ht="18.75" spans="2:24">
+      <c r="B8" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E8" s="12">
         <v>11</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F8" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G8" s="13">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H8" s="13">
         <f t="shared" si="4"/>
         <v>49.5</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I8" s="13">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J8" s="13">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K8" s="31">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
-      <c r="L5" s="13">
-        <f>E4+L4</f>
+      <c r="L8" s="13">
+        <f>E7+L7</f>
         <v>5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M8" s="13">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N8" s="31">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O8" s="31">
         <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P8" s="13">
         <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q8" s="13">
         <f t="shared" si="12"/>
         <v>599.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="8">
+      <c r="R8" s="42" t="str">
+        <f>T18</f>
+        <v>Desil 1</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" ht="18.75" spans="2:24">
+      <c r="B9" s="9">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E9" s="12">
         <v>20</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F9" s="13">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G9" s="13">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H9" s="13">
         <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I9" s="13">
         <f t="shared" si="5"/>
         <v>69.5</v>
       </c>
-      <c r="J6" s="13">
-        <f>E6+J5</f>
+      <c r="J9" s="13">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K9" s="31">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="L6" s="13">
-        <f>E5+L5</f>
+      <c r="L9" s="13">
+        <f>E8+L8</f>
         <v>16</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M9" s="13">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N9" s="31">
         <f t="shared" si="9"/>
         <v>0.16</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O9" s="31">
         <f t="shared" si="10"/>
         <v>0.84</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P9" s="13">
         <f t="shared" si="11"/>
         <v>64.5</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q9" s="13">
         <f t="shared" si="12"/>
         <v>1290</v>
       </c>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="14">
+      <c r="R9" s="33" t="str">
+        <f>K18</f>
+        <v>Kuartil 1</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" ht="18.75" spans="2:24">
+      <c r="B10" s="14">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E10" s="17">
         <v>32</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F10" s="18">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G10" s="18">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H10" s="18">
         <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I10" s="18">
         <f t="shared" si="5"/>
         <v>79.5</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J10" s="18">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K10" s="32">
         <f t="shared" si="7"/>
         <v>0.32</v>
       </c>
-      <c r="L7" s="19">
-        <f>E6+L6</f>
+      <c r="L10" s="18">
+        <f>E9+L9</f>
         <v>36</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M10" s="18">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N10" s="32">
         <f t="shared" si="9"/>
         <v>0.36</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O10" s="32">
         <f t="shared" si="10"/>
         <v>0.64</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P10" s="18">
         <f t="shared" si="11"/>
         <v>74.5</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q10" s="18">
         <f t="shared" si="12"/>
         <v>2384</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="8">
+      <c r="R10" s="21" t="str">
+        <f>E18</f>
+        <v>Median:</v>
+      </c>
+      <c r="S10" s="22" t="str">
+        <f>H18</f>
+        <v>Modus:</v>
+      </c>
+      <c r="T10" s="34" t="str">
+        <f>N18</f>
+        <v>Kuartil 2</v>
+      </c>
+      <c r="U10" s="43" t="str">
+        <f>E26</f>
+        <v>Desil 2</v>
+      </c>
+      <c r="V10" s="28" t="str">
+        <f>H26</f>
+        <v>Desil 3</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" ht="18.75" spans="2:24">
+      <c r="B11" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E11" s="12">
         <v>25</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F11" s="13">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G11" s="13">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H11" s="13">
         <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I11" s="13">
         <f t="shared" si="5"/>
         <v>89.5</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J11" s="13">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K11" s="31">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="L8" s="13">
-        <f>E7+L7</f>
+      <c r="L11" s="13">
+        <f>E10+L10</f>
         <v>68</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M11" s="13">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N11" s="31">
         <f t="shared" si="9"/>
         <v>0.68</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O11" s="31">
         <f t="shared" si="10"/>
         <v>0.32</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P11" s="13">
         <f t="shared" si="11"/>
         <v>84.5</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q11" s="13">
         <f t="shared" si="12"/>
         <v>2112.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="8">
+      <c r="R11" s="44" t="str">
+        <f>Q18</f>
+        <v>Kuartil 3</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" ht="18.75" spans="2:24">
+      <c r="B12" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E12" s="12">
         <v>7</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F12" s="13">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G12" s="13">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H12" s="13">
         <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I12" s="13">
         <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J12" s="13">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K12" s="31">
         <f t="shared" si="7"/>
         <v>0.07</v>
       </c>
-      <c r="L9" s="13">
-        <f>E8+L8</f>
+      <c r="L12" s="13">
+        <f>E11+L11</f>
         <v>93</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M12" s="13">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N12" s="31">
         <f t="shared" si="9"/>
         <v>0.93</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O12" s="31">
         <f t="shared" si="10"/>
         <v>0.0699999999999999</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P12" s="13">
         <f t="shared" si="11"/>
         <v>94.5</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q12" s="13">
         <f t="shared" si="12"/>
         <v>661.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21">
-        <f>SUM(E3:E9)</f>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" ht="18.75" spans="2:24">
+      <c r="B13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13">
+        <f>SUM(E6:E12)</f>
         <v>100</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="Q10" s="37">
-        <f>SUM(Q3:Q9)</f>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="25">
+        <f>SUM(Q6:Q12)</f>
         <v>7250</v>
       </c>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="23" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" ht="18.75" spans="2:24">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" ht="18.75" spans="2:24">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" ht="18.75" spans="2:24">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <f>Q13/E13</f>
+        <v>72.5</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" ht="18.75" spans="2:24">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" ht="18.75" spans="2:24">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="42"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" ht="18.75" spans="2:24">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="24">
+        <f>E13/2</f>
+        <v>50</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="25">
+        <f>E10</f>
+        <v>32</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="30">
+        <f>(1*$E$13)/4</f>
+        <v>25</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="30">
+        <f>(2*$E$13)/4</f>
+        <v>50</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="30">
+        <f>(3*$E$13)/4</f>
+        <v>75</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="30">
+        <f>(1*$E$13)/10</f>
+        <v>10</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" ht="18.75" spans="2:24">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="25">
+        <f>B10-0.5</f>
+        <v>69.5</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="25">
+        <f>B10-0.5</f>
+        <v>69.5</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="25">
+        <f>B9-0.5</f>
+        <v>59.5</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="25">
+        <f>B10-0.5</f>
+        <v>69.5</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="25">
+        <f>B11-0.5</f>
+        <v>79.5</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="25">
+        <f>B8-0.5</f>
+        <v>49.5</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" ht="18.75" spans="2:24">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="25">
+        <f>J9</f>
+        <v>36</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="25">
+        <f>E10-E9</f>
+        <v>12</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="25">
+        <f>J8</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="5:8">
-      <c r="E13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2">
-        <f>Q10/E10</f>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="15" spans="7:16">
-      <c r="G15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="O15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="7:16">
-      <c r="G16" s="26" t="s">
+      <c r="M21" s="2"/>
+      <c r="N21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="25">
+        <f>J9</f>
+        <v>36</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="25">
+        <f>J11</f>
+        <v>93</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="25">
+        <f>J7</f>
+        <v>5</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" ht="18.75" spans="2:24">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="25">
+        <f>E10</f>
+        <v>32</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="25">
+        <f>E10-E11</f>
+        <v>7</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="25">
+        <f>E9</f>
         <v>20</v>
       </c>
-      <c r="H16" s="27">
-        <f>E10/2</f>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="25">
+        <f>E10</f>
+        <v>32</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="25">
+        <f>E11</f>
+        <v>25</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="25">
+        <f>E8</f>
+        <v>11</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" ht="18.75" spans="2:24">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" ht="18.75" spans="2:24">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="str">
+        <f>E18</f>
+        <v>Median:</v>
+      </c>
+      <c r="F24" s="25">
+        <f>F20+(((F19-F21)/F22)*F23)</f>
+        <v>73.4375</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="str">
+        <f>H18</f>
+        <v>Modus:</v>
+      </c>
+      <c r="I24" s="25">
+        <f>I20+(I21/(I21+I22)*I23)</f>
+        <v>75.1842105263158</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="str">
+        <f>K18</f>
+        <v>Kuartil 1</v>
+      </c>
+      <c r="L24" s="25">
+        <f>L20+(((L19-L21)/L22)*L23)</f>
+        <v>63.55</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="str">
+        <f>N18</f>
+        <v>Kuartil 2</v>
+      </c>
+      <c r="O24" s="25">
+        <f>O20+(((O19-O21)/O22)*O23)</f>
+        <v>73.4375</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="str">
+        <f>Q18</f>
+        <v>Kuartil 3</v>
+      </c>
+      <c r="R24" s="25">
+        <f>R20+(((R19-R21)/R22)*R23)</f>
+        <v>73.02</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2" t="str">
+        <f>T18</f>
+        <v>Desil 1</v>
+      </c>
+      <c r="U24" s="25">
+        <f>U20+(((U19-U21)/U22)*U23)</f>
+        <v>53.5909090909091</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" ht="18.75" spans="2:24">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" ht="18.75" spans="2:24">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="45"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" ht="18.75" spans="2:24">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="30">
+        <f>(2*$E$13)/10</f>
+        <v>20</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="30">
+        <f>(3*$E$13)/10</f>
+        <v>30</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="30">
+        <f>(1*$E$13)/100</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="28">
-        <f>E7</f>
+      <c r="O27" s="30">
+        <f>(2*$E$13)/100</f>
+        <v>2</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="30">
+        <f>(3*$E$13)/100</f>
+        <v>3</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" ht="18.75" spans="2:24">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="25">
+        <f>B10-0.5</f>
+        <v>69.5</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="25">
+        <f>B10-0.5</f>
+        <v>69.5</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="25">
+        <f>B6-0.5</f>
+        <v>29.5</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="25">
+        <f>B6-0.5</f>
+        <v>29.5</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="25">
+        <f>B6-0.5</f>
+        <v>29.5</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" ht="18.75" spans="2:24">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="25">
+        <f>J9</f>
+        <v>36</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="25">
+        <f>J9</f>
+        <v>36</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="25">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" ht="18.75" spans="2:24">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="25">
+        <f>E10</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="7:16">
-      <c r="G17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="28">
-        <f>B7-0.5</f>
-        <v>69.5</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="28">
-        <f>B7-0.5</f>
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="18" spans="7:16">
-      <c r="G18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="28">
-        <f>J6</f>
-        <v>36</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="28">
-        <f>E7-E6</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="7:16">
-      <c r="G19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="28">
-        <f>E7</f>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="25">
+        <f>E10</f>
         <v>32</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="28">
-        <f>E7-E8</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="7:16">
-      <c r="G20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="28">
-        <f>D7-B7</f>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="25">
+        <f>E6</f>
+        <v>2</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="25">
+        <f>E6</f>
+        <v>2</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="25">
+        <f>E6</f>
+        <v>2</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" ht="18.75" spans="2:24">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="25">
+        <f>$D$6-$B$6</f>
         <v>9</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="28">
-        <f>D7-B7</f>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="25">
+        <f>$D$6-$B$6</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="7:16">
-      <c r="G21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="28">
-        <f>H17+(((H16-H18)/H19)*H20)</f>
-        <v>73.4375</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="28">
-        <f>P17+(P18/(P18+P19)*P20)</f>
-        <v>75.1842105263158</v>
-      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="25">
+        <f>$D$6-$B$6</f>
+        <v>9</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" ht="18.75" spans="2:24">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="str">
+        <f>E26</f>
+        <v>Desil 2</v>
+      </c>
+      <c r="F32" s="25">
+        <f>F28+(((F27-F29)/F30)*F31)</f>
+        <v>65</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="str">
+        <f>H26</f>
+        <v>Desil 3</v>
+      </c>
+      <c r="I32" s="25">
+        <f>I28+(((I27-I29)/I30)*I31)</f>
+        <v>67.8125</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="str">
+        <f>K26</f>
+        <v>Persentil 1</v>
+      </c>
+      <c r="L32" s="25">
+        <f>L28+(((L27-L29)/L30)*L31)</f>
+        <v>34</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="str">
+        <f>N26</f>
+        <v>Persentil 2</v>
+      </c>
+      <c r="O32" s="25">
+        <f>O28+(((O27-O29)/O30)*O31)</f>
+        <v>38.5</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2" t="str">
+        <f>Q26</f>
+        <v>Persentil 2</v>
+      </c>
+      <c r="R32" s="25">
+        <f>R28+(((R27-R29)/R30)*R31)</f>
+        <v>43</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="O15:P15"/>
+  <mergeCells count="14">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R26"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="Equation.KSEE3" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>150495</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>328295</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>77470</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1027" progId="Equation.KSEE3" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Equation.KSEE3" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>64135</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>351155</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>15875</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1028" progId="Equation.KSEE3" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
--- a/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
+++ b/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
@@ -29,6 +29,7 @@
             <b/>
             <sz val="12"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -36,6 +37,7 @@
           <rPr>
             <sz val="12"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Menentukan kelas median dilihat dari hasil N/2 Dan lihat dari frekuensi komulatif kelas yang berhubungan Hasil Operasi tersebut</t>
@@ -49,6 +51,7 @@
             <b/>
             <sz val="12"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -56,6 +59,7 @@
           <rPr>
             <sz val="12"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Kelas Modus: Kelas Dengan Jumlah Nilai Frekuensi Paling Banyak</t>
@@ -69,6 +73,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -76,6 +81,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Tepi bawah kelas median. </t>
@@ -89,6 +95,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -96,6 +103,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Tepi Bawah Kelas Modus
@@ -110,6 +118,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -117,6 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Frekuensi Komulatif Diatas kelas Median</t>
@@ -129,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">Iseplutpinur:
 Selisih antara kelas frekuensi modus dan frekuensi kelas modus sebelumnya
@@ -143,6 +154,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -150,6 +162,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Frekuensi Kelas Median</t>
@@ -163,6 +176,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -170,6 +184,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Iseplutpinur:
@@ -185,6 +200,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -192,6 +208,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 C: Adalah Selisih Kelas</t>
@@ -205,6 +222,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t>Iseplutpinur:</t>
         </r>
@@ -212,6 +230,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
+            <family val="1"/>
           </rPr>
           <t xml:space="preserve">
 Selisih kelas</t>
@@ -223,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Nama</t>
   </si>
@@ -388,13 +407,54 @@
   </si>
   <si>
     <t>Kmo</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Σ f </t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Q</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,78 +466,104 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -716,11 +802,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,9 +825,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,13 +837,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,12 +852,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,13 +861,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -805,104 +876,149 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1233,616 +1349,583 @@
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" ht="18.75">
-      <c r="A5" s="6"/>
-      <c r="B5" s="47" t="s">
+      <c r="W4" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="A5" s="66"/>
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="30" t="str">
+      <c r="R5" s="24" t="str">
         <f>K26</f>
         <v>Persentil 1</v>
       </c>
-      <c r="S5" s="31" t="str">
+      <c r="S5" s="25" t="str">
         <f>N26</f>
         <v>Persentil 2</v>
       </c>
-      <c r="T5" s="32" t="str">
+      <c r="T5" s="26" t="str">
         <f>Q26</f>
         <v>Persentil 2</v>
       </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" ht="18.75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8">
+      <c r="U5" s="27"/>
+      <c r="W5" s="70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="A6" s="67"/>
+      <c r="B6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D12" si="0">B6+9</f>
         <v>39</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>B6</f>
         <v>30</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>D6</f>
         <v>39</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>F6-0.5</f>
         <v>29.5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>G6+0.5</f>
         <v>39.5</v>
       </c>
-      <c r="J6" s="12">
-        <f>E6</f>
+      <c r="J6" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;="&amp;B6,$E$6:$E$12)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="21">
         <f>E6/$E$13*100%</f>
         <v>0.02</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B6,$E$6:$E$12)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="12">
-        <f>J12</f>
+      <c r="M6" s="11">
+        <f>SUMIF($B$6:$B$12,"&gt;="&amp;B6,$E$6:$E$12)</f>
         <v>100</v>
       </c>
-      <c r="N6" s="26">
-        <f>0</f>
+      <c r="N6" s="21">
+        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B6,$K$6:$K$12)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="21">
+        <f>SUMIF($B$6:$B$12,"&gt;="&amp;B6,$K$6:$K$12)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <f>(B6+D6)/2</f>
         <v>34.5</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <f>E6*P6</f>
         <v>69</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8">
+      <c r="W6" s="70">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="A7" s="67"/>
+      <c r="B7" s="7">
         <f t="shared" ref="B7:B12" si="1">D6+1</f>
         <v>40</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" ref="F7:F12" si="2">B7</f>
         <v>40</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f t="shared" ref="G7:G12" si="3">D7</f>
         <v>49</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H12" si="4">F7-0.5</f>
         <v>39.5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f t="shared" ref="I7:I12" si="5">G7+0.5</f>
         <v>49.5</v>
       </c>
-      <c r="J7" s="12">
-        <f t="shared" ref="J7:J12" si="6">E7+J6</f>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J12" si="6">SUMIF($B$6:$B$12,"&lt;="&amp;B7,$E$6:$E$12)</f>
         <v>5</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="21">
         <f t="shared" ref="K7:K12" si="7">E7/$E$13*100%</f>
         <v>0.03</v>
       </c>
-      <c r="L7" s="12">
-        <f>E6</f>
+      <c r="L7" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B7,$E$6:$E$12)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="12">
-        <f t="shared" ref="M7:M12" si="8">M6-E6</f>
+      <c r="M7" s="11">
+        <f t="shared" ref="M7:M12" si="8">SUMIF($B$6:$B$12,"&gt;="&amp;B7,$E$6:$E$12)</f>
         <v>98</v>
       </c>
-      <c r="N7" s="26">
-        <f t="shared" ref="N7:N12" si="9">N6+K6</f>
+      <c r="N7" s="21">
+        <f t="shared" ref="N7:N12" si="9">SUMIF($B$6:$B$12,"&lt;"&amp;B7,$K$6:$K$12)</f>
         <v>0.02</v>
       </c>
-      <c r="O7" s="26">
-        <f t="shared" ref="O7:O12" si="10">O6-K6</f>
+      <c r="O7" s="21">
+        <f t="shared" ref="O7:O12" si="10">SUMIF($B$6:$B$12,"&gt;="&amp;B7,$K$6:$K$12)</f>
         <v>0.98</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <f t="shared" ref="P7:P12" si="11">(B7+D7)/2</f>
         <v>44.5</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f t="shared" ref="Q7:Q12" si="12">E7*P7</f>
         <v>133.5</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" ht="18.75">
-      <c r="B8" s="53">
+      <c r="W7" s="70">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="B8" s="30">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>11</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f t="shared" si="4"/>
         <v>49.5</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="21">
         <f t="shared" si="7"/>
         <v>0.11</v>
       </c>
-      <c r="L8" s="12">
-        <f>E7+L7</f>
+      <c r="L8" s="11">
+        <f t="shared" ref="L7:L12" si="13">SUMIF($B$6:$B$12,"&lt;"&amp;B8,$E$6:$E$12)</f>
         <v>5</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="21">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="21">
         <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <f t="shared" si="11"/>
         <v>54.5</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <f t="shared" si="12"/>
         <v>599.5</v>
       </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="41" t="str">
         <f>T18</f>
         <v>Desil 1</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" customFormat="1" ht="18.75">
-      <c r="B9" s="59">
+      <c r="W8" s="70">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="61" customFormat="1" ht="18.75">
+      <c r="B9" s="62">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="64">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="64">
         <v>20</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="65">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="65">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="65">
         <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="65">
         <f t="shared" si="5"/>
         <v>69.5</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="11">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="68">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="L9" s="36">
-        <f>E8+L8</f>
+      <c r="L9" s="11">
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="11">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="21">
         <f t="shared" si="9"/>
         <v>0.16</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="21">
         <f t="shared" si="10"/>
-        <v>0.84</v>
-      </c>
-      <c r="P9" s="36">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="P9" s="65">
         <f t="shared" si="11"/>
         <v>64.5</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="65">
         <f t="shared" si="12"/>
         <v>1290</v>
       </c>
-      <c r="R9" s="37" t="str">
+      <c r="R9" s="28" t="str">
         <f>K18</f>
         <v>Kuartil 1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="18.75">
-      <c r="B10" s="56">
+      <c r="W9" s="70">
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="B10" s="33">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="35">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>32</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="5"/>
         <v>79.5</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="22">
         <f t="shared" si="7"/>
         <v>0.32</v>
       </c>
-      <c r="L10" s="14">
-        <f>E9+L9</f>
+      <c r="L10" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B10,$E$6:$E$12)</f>
         <v>36</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="11">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <f t="shared" si="9"/>
         <v>0.36</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="21">
         <f t="shared" si="10"/>
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="P10" s="12">
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="P10" s="11">
         <f t="shared" si="11"/>
         <v>74.5</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <f t="shared" si="12"/>
         <v>2384</v>
       </c>
-      <c r="R10" s="16" t="str">
+      <c r="R10" s="37" t="str">
         <f>E18</f>
         <v>Median:</v>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="S10" s="38" t="str">
         <f>H18</f>
         <v>Modus:</v>
       </c>
-      <c r="T10" s="28" t="str">
+      <c r="T10" s="39" t="str">
         <f>N18</f>
         <v>Kuartil 2</v>
       </c>
-      <c r="U10" s="22" t="str">
+      <c r="U10" s="42" t="str">
         <f>E26</f>
         <v>Desil 2</v>
       </c>
-      <c r="V10" s="23" t="str">
+      <c r="V10" s="43" t="str">
         <f>H26</f>
         <v>Desil 3</v>
       </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" ht="18.75">
-      <c r="B11" s="8">
+      <c r="W10" s="70">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="B11" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>25</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="5"/>
         <v>89.5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="21">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="L11" s="12">
-        <f>E10+L10</f>
+      <c r="L11" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B11,$E$6:$E$12)</f>
         <v>68</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="21">
         <f t="shared" si="9"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="21">
         <f t="shared" si="10"/>
-        <v>0.3199999999999999</v>
-      </c>
-      <c r="P11" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="P11" s="11">
         <f t="shared" si="11"/>
         <v>84.5</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f t="shared" si="12"/>
         <v>2112.5</v>
       </c>
-      <c r="R11" s="35" t="str">
+      <c r="R11" s="40" t="str">
         <f>Q18</f>
         <v>Kuartil 3</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" ht="18.75">
-      <c r="B12" s="8">
+    </row>
+    <row r="12" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="B12" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>7</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
-      <c r="J12" s="12">
-        <f t="shared" si="6"/>
+      <c r="J12" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;="&amp;B12,$E$6:$E$12)</f>
         <v>100</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="21">
         <f t="shared" si="7"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L12" s="12">
-        <f>E11+L11</f>
+      <c r="L12" s="11">
+        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B12,$E$6:$E$12)</f>
         <v>93</v>
       </c>
-      <c r="M12" s="12">
-        <f t="shared" si="8"/>
+      <c r="M12" s="11">
+        <f>SUMIF($B$6:$B$12,"&gt;="&amp;B12,$E$6:$E$12)</f>
         <v>7</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="21">
         <f t="shared" si="9"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="21">
         <f t="shared" si="10"/>
-        <v>6.9999999999999896E-2</v>
-      </c>
-      <c r="P12" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12" s="11">
         <f t="shared" si="11"/>
         <v>94.5</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <f t="shared" si="12"/>
         <v>661.5</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" ht="18.75">
-      <c r="B13" s="48" t="s">
+    </row>
+    <row r="13" spans="1:24" s="36" customFormat="1" ht="18.75">
+      <c r="B13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="12">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="11">
         <f>SUM(E6:E12)</f>
         <v>100</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="20">
+      <c r="Q13" s="17">
         <f>SUM(Q6:Q12)</f>
         <v>7250</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="18.75">
       <c r="B14" s="2"/>
@@ -1868,12 +1951,12 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1890,11 +1973,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="2">
         <f>Q13/E13</f>
         <v>72.5</v>
@@ -1940,47 +2023,51 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="40" t="s">
+      <c r="O18" s="48"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="40"/>
+      <c r="R18" s="49"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="41" t="s">
+      <c r="T18" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="41"/>
+      <c r="U18" s="50"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="W18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="X18" s="44">
+        <v>73.650000000000006</v>
+      </c>
     </row>
     <row r="19" spans="2:24" ht="18.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="16">
         <f>E13/2</f>
         <v>50</v>
       </c>
@@ -1988,45 +2075,49 @@
       <c r="H19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="17">
         <f>MAX(E6:E12)</f>
         <v>32</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="19">
         <f>(1*$E$13)/4</f>
         <v>25</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="19">
         <f>(2*$E$13)/4</f>
         <v>50</v>
       </c>
       <c r="P19" s="2"/>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="19">
         <f>(3*$E$13)/4</f>
         <v>75</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="T19" s="18" t="s">
+      <c r="T19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="24">
+      <c r="U19" s="19">
         <f>(1*$E$13)/10</f>
         <v>10</v>
       </c>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="W19" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19" s="45">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:24" ht="18.75">
       <c r="B20" s="2"/>
@@ -2035,7 +2126,7 @@
       <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <f>B10-0.5</f>
         <v>69.5</v>
       </c>
@@ -2043,7 +2134,7 @@
       <c r="H20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="17">
         <f>B10-0.5</f>
         <v>69.5</v>
       </c>
@@ -2051,7 +2142,7 @@
       <c r="K20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="17">
         <f>B9-0.5</f>
         <v>59.5</v>
       </c>
@@ -2059,7 +2150,7 @@
       <c r="N20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="17">
         <f>B10-0.5</f>
         <v>69.5</v>
       </c>
@@ -2067,7 +2158,7 @@
       <c r="Q20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="17">
         <f>B11-0.5</f>
         <v>79.5</v>
       </c>
@@ -2075,22 +2166,26 @@
       <c r="T20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="17">
         <f>B8-0.5</f>
         <v>49.5</v>
       </c>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
+      <c r="W20" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="X20" s="45">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="21" spans="2:24" ht="18.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <f>J9</f>
         <v>36</v>
       </c>
@@ -2098,31 +2193,31 @@
       <c r="H21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="17">
         <f>E10-E9</f>
         <v>12</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="17">
         <f>J8</f>
         <v>16</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="17">
         <f>J9</f>
         <v>36</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="17">
         <f>J11</f>
         <v>93</v>
       </c>
@@ -2130,13 +2225,17 @@
       <c r="T21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="17">
         <f>J7</f>
         <v>5</v>
       </c>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
+      <c r="W21" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21" s="45">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="2:24" ht="18.75">
       <c r="B22" s="2"/>
@@ -2145,7 +2244,7 @@
       <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <f>E10</f>
         <v>32</v>
       </c>
@@ -2153,7 +2252,7 @@
       <c r="H22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="17">
         <f>E10-E11</f>
         <v>7</v>
       </c>
@@ -2161,7 +2260,7 @@
       <c r="K22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="17">
         <f>E9</f>
         <v>20</v>
       </c>
@@ -2169,7 +2268,7 @@
       <c r="N22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="17">
         <f>E10</f>
         <v>32</v>
       </c>
@@ -2177,7 +2276,7 @@
       <c r="Q22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="17">
         <f>E11</f>
         <v>25</v>
       </c>
@@ -2185,13 +2284,17 @@
       <c r="T22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="17">
         <f>E8</f>
         <v>11</v>
       </c>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="W22" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="45">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="2:24" ht="18.75">
       <c r="B23" s="2"/>
@@ -2200,7 +2303,7 @@
       <c r="E23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2208,7 +2311,7 @@
       <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2216,7 +2319,7 @@
       <c r="K23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2224,7 +2327,7 @@
       <c r="N23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2232,7 +2335,7 @@
       <c r="Q23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2240,13 +2343,16 @@
       <c r="T23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="17">
+        <f>X18+(((((3*X21)/4)-X22)/X19)*X20)</f>
+        <v>73.95</v>
+      </c>
     </row>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="2"/>
@@ -2256,7 +2362,7 @@
         <f>E18</f>
         <v>Median:</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <f>F20+(((F19-F21)/F22)*F23)</f>
         <v>73.875</v>
       </c>
@@ -2265,7 +2371,7 @@
         <f>H18</f>
         <v>Modus:</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="17">
         <f>I20+(I21/(I21+I22)*I23)</f>
         <v>75.815789473684205</v>
       </c>
@@ -2274,7 +2380,7 @@
         <f>K18</f>
         <v>Kuartil 1</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="17">
         <f>L20+(((L19-L21)/L22)*L23)</f>
         <v>64</v>
       </c>
@@ -2283,7 +2389,7 @@
         <f>N18</f>
         <v>Kuartil 2</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="17">
         <f>O20+(((O19-O21)/O22)*O23)</f>
         <v>73.875</v>
       </c>
@@ -2292,7 +2398,7 @@
         <f>Q18</f>
         <v>Kuartil 3</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="17">
         <f>R20+(((R19-R21)/R22)*R23)</f>
         <v>72.3</v>
       </c>
@@ -2301,7 +2407,7 @@
         <f>T18</f>
         <v>Desil 1</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="17">
         <f>U20+(((U19-U21)/U22)*U23)</f>
         <v>54.045454545454547</v>
       </c>
@@ -2338,30 +2444,30 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="44"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="45"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="46" t="s">
+      <c r="Q26" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="46"/>
+      <c r="R26" s="55"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2373,42 +2479,42 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="19">
         <f>(2*$E$13)/10</f>
         <v>20</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="19">
         <f>(3*$E$13)/10</f>
         <v>30</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="19">
         <f>(1*$E$13)/100</f>
         <v>1</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="19">
         <f>(2*$E$13)/100</f>
         <v>2</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="19">
         <f>(3*$E$13)/100</f>
         <v>3</v>
       </c>
@@ -2426,7 +2532,7 @@
       <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <f>B10-0.5</f>
         <v>69.5</v>
       </c>
@@ -2434,7 +2540,7 @@
       <c r="H28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <f>B10-0.5</f>
         <v>69.5</v>
       </c>
@@ -2442,7 +2548,7 @@
       <c r="K28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="17">
         <f>B6-0.5</f>
         <v>29.5</v>
       </c>
@@ -2450,7 +2556,7 @@
       <c r="N28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="17">
         <f>B6-0.5</f>
         <v>29.5</v>
       </c>
@@ -2458,7 +2564,7 @@
       <c r="Q28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="17">
         <f>B6-0.5</f>
         <v>29.5</v>
       </c>
@@ -2473,40 +2579,40 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="17">
         <f>J9</f>
         <v>36</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>J9</f>
         <v>36</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="17">
         <v>0</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <v>0</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="17">
         <v>0</v>
       </c>
       <c r="S29" s="2"/>
@@ -2523,7 +2629,7 @@
       <c r="E30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <f>E10</f>
         <v>32</v>
       </c>
@@ -2531,7 +2637,7 @@
       <c r="H30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="17">
         <f>E10</f>
         <v>32</v>
       </c>
@@ -2539,7 +2645,7 @@
       <c r="K30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="17">
         <f>E6</f>
         <v>2</v>
       </c>
@@ -2547,7 +2653,7 @@
       <c r="N30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="17">
         <f>E6</f>
         <v>2</v>
       </c>
@@ -2555,7 +2661,7 @@
       <c r="Q30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="17">
         <f>E6</f>
         <v>2</v>
       </c>
@@ -2573,7 +2679,7 @@
       <c r="E31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2581,7 +2687,7 @@
       <c r="H31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2589,7 +2695,7 @@
       <c r="K31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2597,7 +2703,7 @@
       <c r="N31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2605,7 +2711,7 @@
       <c r="Q31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="17">
         <f>$D$6-$B$6+1</f>
         <v>10</v>
       </c>
@@ -2624,7 +2730,7 @@
         <f>E26</f>
         <v>Desil 2</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <f>F28+(((F27-F29)/F30)*F31)</f>
         <v>64.5</v>
       </c>
@@ -2633,7 +2739,7 @@
         <f>H26</f>
         <v>Desil 3</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="17">
         <f>I28+(((I27-I29)/I30)*I31)</f>
         <v>67.625</v>
       </c>
@@ -2642,7 +2748,7 @@
         <f>K26</f>
         <v>Persentil 1</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="17">
         <f>L28+(((L27-L29)/L30)*L31)</f>
         <v>34.5</v>
       </c>
@@ -2651,7 +2757,7 @@
         <f>N26</f>
         <v>Persentil 2</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="17">
         <f>O28+(((O27-O29)/O30)*O31)</f>
         <v>39.5</v>
       </c>
@@ -2660,7 +2766,7 @@
         <f>Q26</f>
         <v>Persentil 2</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="17">
         <f>R28+(((R27-R29)/R30)*R31)</f>
         <v>44.5</v>
       </c>
@@ -2672,13 +2778,13 @@
       <c r="X32" s="2"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="25"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="25"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="25"/>
+      <c r="G40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
+++ b/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Semester 3\Rabu\Statistika\Minggu 4 - Ukuran Data dikelompokkan\tugas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
@@ -12,7 +17,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$W$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -22,7 +28,7 @@
     <author>Iseplutpinur</author>
   </authors>
   <commentList>
-    <comment ref="F19" authorId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0">
+    <comment ref="H22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0">
+    <comment ref="H23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -948,6 +954,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -989,36 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,6 +1036,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1298,8 +1307,8 @@
   </sheetPr>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1349,17 +1358,17 @@
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="W4" s="69">
+      <c r="W4" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="36" customFormat="1" ht="18.75">
-      <c r="A5" s="66"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1412,12 +1421,12 @@
         <v>Persentil 2</v>
       </c>
       <c r="U5" s="27"/>
-      <c r="W5" s="70">
+      <c r="W5" s="56">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="36" customFormat="1" ht="18.75">
-      <c r="A6" s="67"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="7">
         <v>30</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>39.5</v>
       </c>
       <c r="J6" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;="&amp;B6,$E$6:$E$12)</f>
+        <f t="shared" ref="J6:J12" si="1">SUMIF($B$6:$B$12,"&lt;="&amp;B6,$E$6:$E$12)</f>
         <v>2</v>
       </c>
       <c r="K6" s="21">
@@ -1456,11 +1465,11 @@
         <v>0.02</v>
       </c>
       <c r="L6" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B6,$E$6:$E$12)</f>
+        <f t="shared" ref="L6:L12" si="2">SUMIF($B$6:$B$12,"&lt;"&amp;B6,$E$6:$E$12)</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f>SUMIF($B$6:$B$12,"&gt;="&amp;B6,$E$6:$E$12)</f>
+        <f t="shared" ref="M6:M12" si="3">SUMIF($B$6:$B$12,"&gt;="&amp;B6,$E$6:$E$12)</f>
         <v>100</v>
       </c>
       <c r="N6" s="21">
@@ -1479,14 +1488,14 @@
         <f>E6*P6</f>
         <v>69</v>
       </c>
-      <c r="W6" s="70">
+      <c r="W6" s="56">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="36" customFormat="1" ht="18.75">
-      <c r="A7" s="67"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="7">
-        <f t="shared" ref="B7:B12" si="1">D6+1</f>
+        <f t="shared" ref="B7:B12" si="4">D6+1</f>
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1500,60 +1509,60 @@
         <v>3</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" ref="F7:F12" si="2">B7</f>
+        <f t="shared" ref="F7:F12" si="5">B7</f>
         <v>40</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" ref="G7:G12" si="3">D7</f>
+        <f t="shared" ref="G7:G12" si="6">D7</f>
         <v>49</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" ref="H7:H12" si="4">F7-0.5</f>
+        <f t="shared" ref="H7:H12" si="7">F7-0.5</f>
         <v>39.5</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" ref="I7:I12" si="5">G7+0.5</f>
+        <f t="shared" ref="I7:I12" si="8">G7+0.5</f>
         <v>49.5</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" ref="J7:J12" si="6">SUMIF($B$6:$B$12,"&lt;="&amp;B7,$E$6:$E$12)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K7" s="21">
-        <f t="shared" ref="K7:K12" si="7">E7/$E$13*100%</f>
+        <f t="shared" ref="K7:K12" si="9">E7/$E$13*100%</f>
         <v>0.03</v>
       </c>
       <c r="L7" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B7,$E$6:$E$12)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" ref="M7:M12" si="8">SUMIF($B$6:$B$12,"&gt;="&amp;B7,$E$6:$E$12)</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="N7" s="21">
-        <f t="shared" ref="N7:N12" si="9">SUMIF($B$6:$B$12,"&lt;"&amp;B7,$K$6:$K$12)</f>
+        <f t="shared" ref="N7:N12" si="10">SUMIF($B$6:$B$12,"&lt;"&amp;B7,$K$6:$K$12)</f>
         <v>0.02</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" ref="O7:O12" si="10">SUMIF($B$6:$B$12,"&gt;="&amp;B7,$K$6:$K$12)</f>
+        <f t="shared" ref="O7:O12" si="11">SUMIF($B$6:$B$12,"&gt;="&amp;B7,$K$6:$K$12)</f>
         <v>0.98</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" ref="P7:P12" si="11">(B7+D7)/2</f>
+        <f t="shared" ref="P7:P12" si="12">(B7+D7)/2</f>
         <v>44.5</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" ref="Q7:Q12" si="12">E7*P7</f>
+        <f t="shared" ref="Q7:Q12" si="13">E7*P7</f>
         <v>133.5</v>
       </c>
-      <c r="W7" s="70">
+      <c r="W7" s="56">
         <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="36" customFormat="1" ht="18.75">
       <c r="B8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -1567,135 +1576,135 @@
         <v>11</v>
       </c>
       <c r="F8" s="11">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="7"/>
+        <v>49.5</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="8"/>
+        <v>59.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="9"/>
+        <v>0.11</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="4"/>
-        <v>49.5</v>
-      </c>
-      <c r="I8" s="11">
-        <f t="shared" si="5"/>
-        <v>59.5</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="7"/>
-        <v>0.11</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" ref="L7:L12" si="13">SUMIF($B$6:$B$12,"&lt;"&amp;B8,$E$6:$E$12)</f>
-        <v>5</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="N8" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54.5</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>599.5</v>
       </c>
       <c r="R8" s="41" t="str">
         <f>T18</f>
         <v>Desil 1</v>
       </c>
-      <c r="W8" s="70">
+      <c r="W8" s="56">
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="61" customFormat="1" ht="18.75">
-      <c r="B9" s="62">
-        <f t="shared" si="1"/>
+    <row r="9" spans="1:24" s="47" customFormat="1" ht="18.75">
+      <c r="B9" s="48">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="50">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="50">
         <v>20</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="51">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="G9" s="51">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="I9" s="51">
+        <f t="shared" si="8"/>
+        <v>69.5</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K9" s="54">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G9" s="65">
+        <v>16</v>
+      </c>
+      <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="H9" s="65">
-        <f t="shared" si="4"/>
-        <v>59.5</v>
-      </c>
-      <c r="I9" s="65">
-        <f t="shared" si="5"/>
-        <v>69.5</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="K9" s="68">
-        <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="11">
+        <v>84</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="10"/>
+        <v>0.16</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="11"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="P9" s="51">
+        <f t="shared" si="12"/>
+        <v>64.5</v>
+      </c>
+      <c r="Q9" s="51">
         <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="N9" s="21">
-        <f t="shared" si="9"/>
-        <v>0.16</v>
-      </c>
-      <c r="O9" s="21">
-        <f t="shared" si="10"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="P9" s="65">
-        <f t="shared" si="11"/>
-        <v>64.5</v>
-      </c>
-      <c r="Q9" s="65">
-        <f t="shared" si="12"/>
         <v>1290</v>
       </c>
       <c r="R9" s="28" t="str">
         <f>K18</f>
         <v>Kuartil 1</v>
       </c>
-      <c r="W9" s="70">
+      <c r="W9" s="56">
         <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="36" customFormat="1" ht="18.75">
       <c r="B10" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -1709,51 +1718,51 @@
         <v>32</v>
       </c>
       <c r="F10" s="13">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="7"/>
+        <v>69.5</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="8"/>
+        <v>79.5</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="9"/>
+        <v>0.32</v>
+      </c>
+      <c r="L10" s="11">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G10" s="13">
+        <v>36</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="4"/>
-        <v>69.5</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="5"/>
-        <v>79.5</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="7"/>
-        <v>0.32</v>
-      </c>
-      <c r="L10" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B10,$E$6:$E$12)</f>
-        <v>36</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="N10" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.36</v>
       </c>
       <c r="O10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74.5</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2384</v>
       </c>
       <c r="R10" s="37" t="str">
@@ -1776,13 +1785,13 @@
         <f>H26</f>
         <v>Desil 3</v>
       </c>
-      <c r="W10" s="70">
+      <c r="W10" s="56">
         <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="36" customFormat="1" ht="18.75">
       <c r="B11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1796,51 +1805,51 @@
         <v>25</v>
       </c>
       <c r="F11" s="11">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="7"/>
+        <v>79.5</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="8"/>
+        <v>89.5</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="11">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="G11" s="11">
+        <v>68</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="4"/>
-        <v>79.5</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="5"/>
-        <v>89.5</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="K11" s="21">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="L11" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B11,$E$6:$E$12)</f>
-        <v>68</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.67999999999999994</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84.5</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2112.5</v>
       </c>
       <c r="R11" s="40" t="str">
@@ -1850,7 +1859,7 @@
     </row>
     <row r="12" spans="1:24" s="36" customFormat="1" ht="18.75">
       <c r="B12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1864,60 +1873,60 @@
         <v>7</v>
       </c>
       <c r="F12" s="11">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="7"/>
+        <v>89.5</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="8"/>
+        <v>99.5</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="11">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="G12" s="11">
+        <v>93</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="4"/>
-        <v>89.5</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" si="5"/>
-        <v>99.5</v>
-      </c>
-      <c r="J12" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;="&amp;B12,$E$6:$E$12)</f>
-        <v>100</v>
-      </c>
-      <c r="K12" s="21">
-        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="10"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L12" s="11">
-        <f>SUMIF($B$6:$B$12,"&lt;"&amp;B12,$E$6:$E$12)</f>
-        <v>93</v>
-      </c>
-      <c r="M12" s="11">
-        <f>SUMIF($B$6:$B$12,"&gt;="&amp;B12,$E$6:$E$12)</f>
-        <v>7</v>
-      </c>
-      <c r="N12" s="21">
-        <f t="shared" si="9"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="O12" s="21">
-        <f t="shared" si="10"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="P12" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>94.5</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>661.5</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="36" customFormat="1" ht="18.75">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="11">
         <f>SUM(E6:E12)</f>
         <v>100</v>
@@ -1973,11 +1982,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="2">
         <f>Q13/E13</f>
         <v>72.5</v>
@@ -2023,35 +2032,35 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="47"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="48" t="s">
+      <c r="N18" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="48"/>
+      <c r="O18" s="58"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="49" t="s">
+      <c r="Q18" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="49"/>
+      <c r="R18" s="59"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="50" t="s">
+      <c r="T18" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="50"/>
+      <c r="U18" s="60"/>
       <c r="V18" s="2"/>
       <c r="W18" s="44" t="s">
         <v>58</v>
@@ -2444,30 +2453,30 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="52"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="53" t="s">
+      <c r="K26" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="53"/>
+      <c r="L26" s="63"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="54" t="s">
+      <c r="N26" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="54"/>
+      <c r="O26" s="64"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="55" t="s">
+      <c r="Q26" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="55"/>
+      <c r="R26" s="65"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>

--- a/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
+++ b/Rabu/Statistika/Minggu 4 - Ukuran Data dikelompokkan/tugas/Tugas Pertemuan 4.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$W$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -984,33 +983,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,6 +996,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,16 +1306,15 @@
   </sheetPr>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="16" width="7.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="1" customWidth="1"/>
@@ -1364,11 +1362,11 @@
     </row>
     <row r="5" spans="1:24" s="36" customFormat="1" ht="18.75">
       <c r="A5" s="52"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1922,11 +1920,11 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="36" customFormat="1" ht="18.75">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="11">
         <f>SUM(E6:E12)</f>
         <v>100</v>
@@ -1982,11 +1980,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="2">
         <f>Q13/E13</f>
         <v>72.5</v>
@@ -2032,35 +2030,35 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="57"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="58" t="s">
+      <c r="N18" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="58"/>
+      <c r="O18" s="63"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="59" t="s">
+      <c r="Q18" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="59"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="60" t="s">
+      <c r="T18" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="U18" s="60"/>
+      <c r="U18" s="65"/>
       <c r="V18" s="2"/>
       <c r="W18" s="44" t="s">
         <v>58</v>
@@ -2453,30 +2451,30 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="63"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="64" t="s">
+      <c r="N26" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="64"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="65" t="s">
+      <c r="Q26" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="65"/>
+      <c r="R26" s="70"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2797,11 +2795,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="Q18:R18"/>
@@ -2811,6 +2804,11 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
